--- a/static/xls/ok.xlsx
+++ b/static/xls/ok.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -596,10 +596,110 @@
         <v>102011</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>13063</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <v>test2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>102011</v>
+      </c>
+      <c r="F10" s="1">
+        <v>101017</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>13063</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <v>test2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>102011</v>
+      </c>
+      <c r="F11" s="1">
+        <v>101017</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>13063</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <v>test2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>102011</v>
+      </c>
+      <c r="F12" s="1">
+        <v>101017</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>13063</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <v>test2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>102011</v>
+      </c>
+      <c r="F13" s="1">
+        <v>101017</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>13063</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <v>test2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>102011</v>
+      </c>
+      <c r="F14" s="1">
+        <v>101017</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J14"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/static/xls/ok.xlsx
+++ b/static/xls/ok.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -696,10 +696,90 @@
         <v>101017</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>13063</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <v>test2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>102011</v>
+      </c>
+      <c r="F15" s="1">
+        <v>101017</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>13063</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <v>test2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>102011</v>
+      </c>
+      <c r="F16" s="1">
+        <v>101017</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>13063</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <v>test2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>102011</v>
+      </c>
+      <c r="F17" s="1">
+        <v>101017</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>13063</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <v>test2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>102011</v>
+      </c>
+      <c r="F18" s="1">
+        <v>101017</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J18"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/static/xls/ok.xlsx
+++ b/static/xls/ok.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -776,10 +776,78 @@
         <v>101017</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>13064</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <v>test1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>101016</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>13064</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <v>test1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>101016</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>13063</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <v>test2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>101016</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>13063</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <v>test2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>101016</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J18"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J22"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/static/xls/ok.xlsx
+++ b/static/xls/ok.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -844,10 +844,30 @@
         <v>101016</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>13063</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <v>test2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>102011</v>
+      </c>
+      <c r="F23" s="1">
+        <v>101017</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J23"/>
   </ignoredErrors>
 </worksheet>
 </file>